--- a/Scores_ex.xlsx
+++ b/Scores_ex.xlsx
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,7 +483,7 @@
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
         <v>98</v>
@@ -513,15 +513,19 @@
         <v>10</v>
       </c>
       <c r="E2" s="7">
-        <f>PERCENTILE($B$2:$B$24,D2/100)</f>
+        <f t="shared" ref="E2:E11" si="0">PERCENTILE($B$2:$B$24,D2/100)</f>
         <v>4.6000000000000005</v>
       </c>
       <c r="F2">
-        <f>IF(B2&lt;=$E$2,1,IF(B2&lt;=$E$3,2,IF(B2&lt;=$E$4,3,IF(B2&lt;=$E$5,4,IF(B2&lt;=$E$6,5,IF(B2&lt;=$E$7,6,IF(B2&lt;=$E$8,7,IF(B2&lt;=$E$9,8,IF(B2&lt;=$E$10,9,IF(B2&lt;=$E$11,10))))))))))</f>
+        <f t="shared" ref="F2:F24" si="1">IF(B2&lt;=$E$2,1,IF(B2&lt;=$E$3,2,IF(B2&lt;=$E$4,3,IF(B2&lt;=$E$5,4,IF(B2&lt;=$E$6,5,IF(B2&lt;=$E$7,6,IF(B2&lt;=$E$8,7,IF(B2&lt;=$E$9,8,IF(B2&lt;=$E$10,9,IF(B2&lt;=$E$11,10))))))))))</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>IF(F2&lt;=3,2,IF(F2&lt;=5,3,IF(F2&lt;=7,4,IF(F2&lt;=10,5))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>89</v>
@@ -533,15 +537,19 @@
         <v>20</v>
       </c>
       <c r="E3" s="7">
-        <f>PERCENTILE($B$2:$B$24,D3/100)</f>
+        <f t="shared" si="0"/>
         <v>12.000000000000002</v>
       </c>
       <c r="F3">
-        <f>IF(B3&lt;=$E$2,1,IF(B3&lt;=$E$3,2,IF(B3&lt;=$E$4,3,IF(B3&lt;=$E$5,4,IF(B3&lt;=$E$6,5,IF(B3&lt;=$E$7,6,IF(B3&lt;=$E$8,7,IF(B3&lt;=$E$9,8,IF(B3&lt;=$E$10,9,IF(B3&lt;=$E$11,10))))))))))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f t="shared" ref="G3:G24" si="2">IF(F3&lt;=3,2,IF(F3&lt;=5,3,IF(F3&lt;=7,4,IF(F3&lt;=10,5))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>80</v>
@@ -553,15 +561,19 @@
         <v>30</v>
       </c>
       <c r="E4" s="7">
-        <f>PERCENTILE($B$2:$B$24,D4/100)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F4">
-        <f>IF(B4&lt;=$E$2,1,IF(B4&lt;=$E$3,2,IF(B4&lt;=$E$4,3,IF(B4&lt;=$E$5,4,IF(B4&lt;=$E$6,5,IF(B4&lt;=$E$7,6,IF(B4&lt;=$E$8,7,IF(B4&lt;=$E$9,8,IF(B4&lt;=$E$10,9,IF(B4&lt;=$E$11,10))))))))))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>70</v>
@@ -573,15 +585,19 @@
         <v>40</v>
       </c>
       <c r="E5" s="7">
-        <f>PERCENTILE($B$2:$B$24,D5/100)</f>
+        <f t="shared" si="0"/>
         <v>29.8</v>
       </c>
       <c r="F5">
-        <f>IF(B5&lt;=$E$2,1,IF(B5&lt;=$E$3,2,IF(B5&lt;=$E$4,3,IF(B5&lt;=$E$5,4,IF(B5&lt;=$E$6,5,IF(B5&lt;=$E$7,6,IF(B5&lt;=$E$8,7,IF(B5&lt;=$E$9,8,IF(B5&lt;=$E$10,9,IF(B5&lt;=$E$11,10))))))))))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>65</v>
@@ -593,15 +609,19 @@
         <v>50</v>
       </c>
       <c r="E6" s="7">
-        <f>PERCENTILE($B$2:$B$24,D6/100)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="F6">
-        <f>IF(B6&lt;=$E$2,1,IF(B6&lt;=$E$3,2,IF(B6&lt;=$E$4,3,IF(B6&lt;=$E$5,4,IF(B6&lt;=$E$6,5,IF(B6&lt;=$E$7,6,IF(B6&lt;=$E$8,7,IF(B6&lt;=$E$9,8,IF(B6&lt;=$E$10,9,IF(B6&lt;=$E$11,10))))))))))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>65</v>
@@ -613,15 +633,19 @@
         <v>60</v>
       </c>
       <c r="E7" s="7">
-        <f>PERCENTILE($B$2:$B$24,D7/100)</f>
+        <f t="shared" si="0"/>
         <v>51.199999999999996</v>
       </c>
       <c r="F7">
-        <f>IF(B7&lt;=$E$2,1,IF(B7&lt;=$E$3,2,IF(B7&lt;=$E$4,3,IF(B7&lt;=$E$5,4,IF(B7&lt;=$E$6,5,IF(B7&lt;=$E$7,6,IF(B7&lt;=$E$8,7,IF(B7&lt;=$E$9,8,IF(B7&lt;=$E$10,9,IF(B7&lt;=$E$11,10))))))))))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>60</v>
@@ -633,15 +657,19 @@
         <v>70</v>
       </c>
       <c r="E8" s="7">
-        <f>PERCENTILE($B$2:$B$24,D8/100)</f>
+        <f t="shared" si="0"/>
         <v>58.199999999999996</v>
       </c>
       <c r="F8">
-        <f>IF(B8&lt;=$E$2,1,IF(B8&lt;=$E$3,2,IF(B8&lt;=$E$4,3,IF(B8&lt;=$E$5,4,IF(B8&lt;=$E$6,5,IF(B8&lt;=$E$7,6,IF(B8&lt;=$E$8,7,IF(B8&lt;=$E$9,8,IF(B8&lt;=$E$10,9,IF(B8&lt;=$E$11,10))))))))))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
         <v>57</v>
@@ -653,15 +681,19 @@
         <v>80</v>
       </c>
       <c r="E9" s="7">
-        <f>PERCENTILE($B$2:$B$24,D9/100)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="F9">
-        <f>IF(B9&lt;=$E$2,1,IF(B9&lt;=$E$3,2,IF(B9&lt;=$E$4,3,IF(B9&lt;=$E$5,4,IF(B9&lt;=$E$6,5,IF(B9&lt;=$E$7,6,IF(B9&lt;=$E$8,7,IF(B9&lt;=$E$9,8,IF(B9&lt;=$E$10,9,IF(B9&lt;=$E$11,10))))))))))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
         <v>56</v>
@@ -673,15 +705,19 @@
         <v>90</v>
       </c>
       <c r="E10" s="7">
-        <f>PERCENTILE($B$2:$B$24,D10/100)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="F10">
-        <f>IF(B10&lt;=$E$2,1,IF(B10&lt;=$E$3,2,IF(B10&lt;=$E$4,3,IF(B10&lt;=$E$5,4,IF(B10&lt;=$E$6,5,IF(B10&lt;=$E$7,6,IF(B10&lt;=$E$8,7,IF(B10&lt;=$E$9,8,IF(B10&lt;=$E$10,9,IF(B10&lt;=$E$11,10))))))))))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>50</v>
@@ -693,135 +729,191 @@
         <v>100</v>
       </c>
       <c r="E11" s="7">
-        <f>PERCENTILE($B$2:$B$24,D11/100)</f>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="F11">
-        <f>IF(B11&lt;=$E$2,1,IF(B11&lt;=$E$3,2,IF(B11&lt;=$E$4,3,IF(B11&lt;=$E$5,4,IF(B11&lt;=$E$6,5,IF(B11&lt;=$E$7,6,IF(B11&lt;=$E$8,7,IF(B11&lt;=$E$9,8,IF(B11&lt;=$E$10,9,IF(B11&lt;=$E$11,10))))))))))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>43</v>
       </c>
       <c r="C12" s="5"/>
       <c r="F12">
-        <f>IF(B12&lt;=$E$2,1,IF(B12&lt;=$E$3,2,IF(B12&lt;=$E$4,3,IF(B12&lt;=$E$5,4,IF(B12&lt;=$E$6,5,IF(B12&lt;=$E$7,6,IF(B12&lt;=$E$8,7,IF(B12&lt;=$E$9,8,IF(B12&lt;=$E$10,9,IF(B12&lt;=$E$11,10))))))))))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>30</v>
       </c>
       <c r="C13" s="5"/>
       <c r="F13">
-        <f>IF(B13&lt;=$E$2,1,IF(B13&lt;=$E$3,2,IF(B13&lt;=$E$4,3,IF(B13&lt;=$E$5,4,IF(B13&lt;=$E$6,5,IF(B13&lt;=$E$7,6,IF(B13&lt;=$E$8,7,IF(B13&lt;=$E$9,8,IF(B13&lt;=$E$10,9,IF(B13&lt;=$E$11,10))))))))))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="5"/>
       <c r="F14">
-        <f>IF(B14&lt;=$E$2,1,IF(B14&lt;=$E$3,2,IF(B14&lt;=$E$4,3,IF(B14&lt;=$E$5,4,IF(B14&lt;=$E$6,5,IF(B14&lt;=$E$7,6,IF(B14&lt;=$E$8,7,IF(B14&lt;=$E$9,8,IF(B14&lt;=$E$10,9,IF(B14&lt;=$E$11,10))))))))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="F15">
-        <f>IF(B15&lt;=$E$2,1,IF(B15&lt;=$E$3,2,IF(B15&lt;=$E$4,3,IF(B15&lt;=$E$5,4,IF(B15&lt;=$E$6,5,IF(B15&lt;=$E$7,6,IF(B15&lt;=$E$8,7,IF(B15&lt;=$E$9,8,IF(B15&lt;=$E$10,9,IF(B15&lt;=$E$11,10))))))))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>4</v>
       </c>
       <c r="F16">
-        <f>IF(B16&lt;=$E$2,1,IF(B16&lt;=$E$3,2,IF(B16&lt;=$E$4,3,IF(B16&lt;=$E$5,4,IF(B16&lt;=$E$6,5,IF(B16&lt;=$E$7,6,IF(B16&lt;=$E$8,7,IF(B16&lt;=$E$9,8,IF(B16&lt;=$E$10,9,IF(B16&lt;=$E$11,10))))))))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="F17">
-        <f>IF(B17&lt;=$E$2,1,IF(B17&lt;=$E$3,2,IF(B17&lt;=$E$4,3,IF(B17&lt;=$E$5,4,IF(B17&lt;=$E$6,5,IF(B17&lt;=$E$7,6,IF(B17&lt;=$E$8,7,IF(B17&lt;=$E$9,8,IF(B17&lt;=$E$10,9,IF(B17&lt;=$E$11,10))))))))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>20</v>
       </c>
       <c r="F18">
-        <f>IF(B18&lt;=$E$2,1,IF(B18&lt;=$E$3,2,IF(B18&lt;=$E$4,3,IF(B18&lt;=$E$5,4,IF(B18&lt;=$E$6,5,IF(B18&lt;=$E$7,6,IF(B18&lt;=$E$8,7,IF(B18&lt;=$E$9,8,IF(B18&lt;=$E$10,9,IF(B18&lt;=$E$11,10))))))))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>10</v>
       </c>
       <c r="F19">
-        <f>IF(B19&lt;=$E$2,1,IF(B19&lt;=$E$3,2,IF(B19&lt;=$E$4,3,IF(B19&lt;=$E$5,4,IF(B19&lt;=$E$6,5,IF(B19&lt;=$E$7,6,IF(B19&lt;=$E$8,7,IF(B19&lt;=$E$9,8,IF(B19&lt;=$E$10,9,IF(B19&lt;=$E$11,10))))))))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>7</v>
       </c>
       <c r="F20">
-        <f>IF(B20&lt;=$E$2,1,IF(B20&lt;=$E$3,2,IF(B20&lt;=$E$4,3,IF(B20&lt;=$E$5,4,IF(B20&lt;=$E$6,5,IF(B20&lt;=$E$7,6,IF(B20&lt;=$E$8,7,IF(B20&lt;=$E$9,8,IF(B20&lt;=$E$10,9,IF(B20&lt;=$E$11,10))))))))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>15</v>
       </c>
       <c r="F21">
-        <f>IF(B21&lt;=$E$2,1,IF(B21&lt;=$E$3,2,IF(B21&lt;=$E$4,3,IF(B21&lt;=$E$5,4,IF(B21&lt;=$E$6,5,IF(B21&lt;=$E$7,6,IF(B21&lt;=$E$8,7,IF(B21&lt;=$E$9,8,IF(B21&lt;=$E$10,9,IF(B21&lt;=$E$11,10))))))))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>43</v>
       </c>
       <c r="F22">
-        <f>IF(B22&lt;=$E$2,1,IF(B22&lt;=$E$3,2,IF(B22&lt;=$E$4,3,IF(B22&lt;=$E$5,4,IF(B22&lt;=$E$6,5,IF(B22&lt;=$E$7,6,IF(B22&lt;=$E$8,7,IF(B22&lt;=$E$9,8,IF(B22&lt;=$E$10,9,IF(B22&lt;=$E$11,10))))))))))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>29</v>
       </c>
       <c r="F23">
-        <f>IF(B23&lt;=$E$2,1,IF(B23&lt;=$E$3,2,IF(B23&lt;=$E$4,3,IF(B23&lt;=$E$5,4,IF(B23&lt;=$E$6,5,IF(B23&lt;=$E$7,6,IF(B23&lt;=$E$8,7,IF(B23&lt;=$E$9,8,IF(B23&lt;=$E$10,9,IF(B23&lt;=$E$11,10))))))))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>40</v>
       </c>
       <c r="F24">
-        <f>IF(B24&lt;=$E$2,1,IF(B24&lt;=$E$3,2,IF(B24&lt;=$E$4,3,IF(B24&lt;=$E$5,4,IF(B24&lt;=$E$6,5,IF(B24&lt;=$E$7,6,IF(B24&lt;=$E$8,7,IF(B24&lt;=$E$9,8,IF(B24&lt;=$E$10,9,IF(B24&lt;=$E$11,10))))))))))</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Scores_ex.xlsx
+++ b/Scores_ex.xlsx
@@ -27,21 +27,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Баллы</t>
   </si>
   <si>
-    <t>нижняя</t>
-  </si>
-  <si>
     <t>Верхняя</t>
   </si>
   <si>
     <t>Верхняя процентиль</t>
   </si>
   <si>
-    <t>Итог</t>
+    <t>Студент 1</t>
+  </si>
+  <si>
+    <t>Студент 2</t>
+  </si>
+  <si>
+    <t>Студент 3</t>
+  </si>
+  <si>
+    <t>Студент 4</t>
+  </si>
+  <si>
+    <t>Студент 5</t>
+  </si>
+  <si>
+    <t>Студент 6</t>
+  </si>
+  <si>
+    <t>Студент 7</t>
+  </si>
+  <si>
+    <t>Студент 8</t>
+  </si>
+  <si>
+    <t>Студент 9</t>
+  </si>
+  <si>
+    <t>Студент 10</t>
+  </si>
+  <si>
+    <t>Студент 11</t>
+  </si>
+  <si>
+    <t>Студент 12</t>
+  </si>
+  <si>
+    <t>Студент 13</t>
+  </si>
+  <si>
+    <t>Студент 14</t>
+  </si>
+  <si>
+    <t>Студент 15</t>
+  </si>
+  <si>
+    <t>Студент 16</t>
+  </si>
+  <si>
+    <t>Студент 17</t>
+  </si>
+  <si>
+    <t>Студент 18</t>
+  </si>
+  <si>
+    <t>Студент 19</t>
+  </si>
+  <si>
+    <t>Студент 20</t>
+  </si>
+  <si>
+    <t>Студент 21</t>
+  </si>
+  <si>
+    <t>Студент 22</t>
+  </si>
+  <si>
+    <t>Студент 23</t>
+  </si>
+  <si>
+    <t>Нижняя</t>
+  </si>
+  <si>
+    <t>Out of 5</t>
+  </si>
+  <si>
+    <t>Out of 10</t>
   </si>
 </sst>
 </file>
@@ -113,7 +185,17 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -196,13 +278,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B1:B24" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" tableBorderDxfId="1" headerRowCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B1:B24" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Currency">
   <autoFilter ref="B1:B24"/>
   <sortState ref="B2:B14">
     <sortCondition descending="1" ref="B1:B14"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="Баллы" dataDxfId="0"/>
+    <tableColumn id="1" name="Баллы" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -474,12 +556,18 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -489,20 +577,25 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
       <c r="B2" s="2">
         <v>98</v>
       </c>
@@ -526,7 +619,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="1">
         <v>89</v>
       </c>
@@ -550,7 +645,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" s="2">
         <v>80</v>
       </c>
@@ -574,7 +671,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" s="1">
         <v>70</v>
       </c>
@@ -598,7 +697,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" s="2">
         <v>65</v>
       </c>
@@ -622,7 +723,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B7" s="1">
         <v>65</v>
       </c>
@@ -646,7 +749,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B8" s="1">
         <v>60</v>
       </c>
@@ -670,7 +775,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" s="2">
         <v>57</v>
       </c>
@@ -694,7 +801,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B10" s="2">
         <v>56</v>
       </c>
@@ -718,7 +827,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B11" s="1">
         <v>50</v>
       </c>
@@ -742,7 +853,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B12" s="2">
         <v>43</v>
       </c>
@@ -757,7 +870,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B13" s="1">
         <v>30</v>
       </c>
@@ -772,7 +887,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B14" s="6">
         <v>20</v>
       </c>
@@ -787,6 +904,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
@@ -800,6 +920,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B16" s="2">
         <v>4</v>
       </c>
@@ -812,7 +935,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -825,7 +951,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B18" s="2">
         <v>20</v>
       </c>
@@ -838,7 +967,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B19" s="2">
         <v>10</v>
       </c>
@@ -851,7 +983,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B20" s="2">
         <v>7</v>
       </c>
@@ -864,7 +999,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B21" s="2">
         <v>15</v>
       </c>
@@ -877,7 +1015,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B22" s="2">
         <v>43</v>
       </c>
@@ -890,7 +1031,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B23" s="2">
         <v>29</v>
       </c>
@@ -903,7 +1047,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B24" s="2">
         <v>40</v>
       </c>
@@ -917,6 +1064,19 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:F24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" bottom="1" rank="30"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">

--- a/Scores_ex.xlsx
+++ b/Scores_ex.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Test 2 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Test 3" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
   <si>
     <t>Баллы</t>
   </si>
@@ -115,6 +117,42 @@
   <si>
     <t>Out of 10</t>
   </si>
+  <si>
+    <t>Студент 24</t>
+  </si>
+  <si>
+    <t>Студент 25</t>
+  </si>
+  <si>
+    <t>Студент 26</t>
+  </si>
+  <si>
+    <t>Студент 27</t>
+  </si>
+  <si>
+    <t>Студент 28</t>
+  </si>
+  <si>
+    <t>Студент 29</t>
+  </si>
+  <si>
+    <t>Студент 30</t>
+  </si>
+  <si>
+    <t>Студент 31</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Граница </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тут граница 20 баллов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тут граница 30 баллов </t>
+  </si>
 </sst>
 </file>
 
@@ -158,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,12 +204,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -180,19 +233,34 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="18">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
     </dxf>
@@ -212,6 +280,7 @@
         <name val="Helvetica Neue"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="0" tint="-0.14999847407452621"/>
@@ -267,6 +336,226 @@
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -278,13 +567,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B1:B24" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Currency">
-  <autoFilter ref="B1:B24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table32" displayName="Table32" ref="B1:C45" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14" headerRowCellStyle="Currency">
+  <autoFilter ref="B1:C45"/>
   <sortState ref="B2:B14">
     <sortCondition descending="1" ref="B1:B14"/>
   </sortState>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Баллы" dataDxfId="1"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Баллы" dataDxfId="13"/>
+    <tableColumn id="2" name="Column1" dataDxfId="12">
+      <calculatedColumnFormula>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="B1:C45" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Currency">
+  <autoFilter ref="B1:C45"/>
+  <sortState ref="B2:B14">
+    <sortCondition descending="1" ref="B1:B14"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Баллы" dataDxfId="7"/>
+    <tableColumn id="2" name="Column1" dataDxfId="6">
+      <calculatedColumnFormula>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B1:C45" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Currency">
+  <autoFilter ref="B1:C45"/>
+  <sortState ref="B2:C45">
+    <sortCondition descending="1" ref="C1:C45"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Баллы" dataDxfId="1">
+      <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Column1" dataDxfId="0">
+      <calculatedColumnFormula>ROUND(Table3[[#This Row],[Баллы]]*100/180,0)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -553,519 +879,982 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1">
+        <f>PERCENTILE($C$2:$C$25,0)</f>
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>98</v>
-      </c>
-      <c r="C2" s="3">
+        <v>151</v>
+      </c>
+      <c r="C2" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>84</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="E2" s="7">
-        <f t="shared" ref="E2:E11" si="0">PERCENTILE($B$2:$B$24,D2/100)</f>
-        <v>4.6000000000000005</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F24" si="1">IF(B2&lt;=$E$2,1,IF(B2&lt;=$E$3,2,IF(B2&lt;=$E$4,3,IF(B2&lt;=$E$5,4,IF(B2&lt;=$E$6,5,IF(B2&lt;=$E$7,6,IF(B2&lt;=$E$8,7,IF(B2&lt;=$E$9,8,IF(B2&lt;=$E$10,9,IF(B2&lt;=$E$11,10))))))))))</f>
+      <c r="F2" s="7">
+        <f>PERCENTILE($C$2:$C$26,E2/100)</f>
+        <v>26.4</v>
+      </c>
+      <c r="G2">
+        <f>IF(C2&lt;=$F$2,1,IF(C2&lt;=$F$3,2,IF(C2&lt;=$F$4,3,IF(C2&lt;=$F$5,4,IF(C2&lt;=$F$6,5,IF(C2&lt;=$F$7,6,IF(C2&lt;=$F$8,7,IF(C2&lt;=$F$9,8,IF(C2&lt;=$F$10,9,IF(C2&lt;=$F$11,10))))))))))</f>
         <v>10</v>
       </c>
-      <c r="G2">
-        <f>IF(F2&lt;=3,2,IF(F2&lt;=5,3,IF(F2&lt;=7,4,IF(F2&lt;=10,5))))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <f>IF(G2&lt;=3,2,IF(G2&lt;=5,3,IF(G2&lt;=7,4,IF(G2&lt;=10,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K8" si="0">PERCENTILE($C$2:$C$25,J2/100)</f>
+        <v>31.45</v>
+      </c>
+      <c r="L2">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <f>IF(L2&lt;=3,2,IF(L2&lt;=5,3,IF(L2&lt;=7,4,IF(L2&lt;=10,5))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>89</v>
-      </c>
-      <c r="C3" s="3">
+        <v>120</v>
+      </c>
+      <c r="C3" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>67</v>
+      </c>
+      <c r="D3" s="3">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>20</v>
       </c>
-      <c r="E3" s="7">
-        <f t="shared" si="0"/>
-        <v>12.000000000000002</v>
-      </c>
-      <c r="F3">
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F12" si="1">PERCENTILE($C$2:$C$26,E3/100)</f>
+        <v>31.8</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G26" si="2">IF(C3&lt;=$F$2,1,IF(C3&lt;=$F$3,2,IF(C3&lt;=$F$4,3,IF(C3&lt;=$F$5,4,IF(C3&lt;=$F$6,5,IF(C3&lt;=$F$7,6,IF(C3&lt;=$F$8,7,IF(C3&lt;=$F$9,8,IF(C3&lt;=$F$10,9,IF(C3&lt;=$F$11,10))))))))))</f>
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H17" si="3">IF(G3&lt;=3,2,IF(G3&lt;=5,3,IF(G3&lt;=7,4,IF(G3&lt;=10,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>32.9</v>
+      </c>
+      <c r="L3">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M17" si="4">IF(L3&lt;=3,2,IF(L3&lt;=5,3,IF(L3&lt;=7,4,IF(L3&lt;=10,5))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>99</v>
+      </c>
+      <c r="C4" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>55</v>
+      </c>
+      <c r="D4" s="3">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4" s="7">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G24" si="2">IF(F3&lt;=3,2,IF(F3&lt;=5,3,IF(F3&lt;=7,4,IF(F3&lt;=10,5))))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>80</v>
-      </c>
-      <c r="C4" s="3">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>55</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="L4">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>70</v>
-      </c>
-      <c r="C5" s="3">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>53</v>
+      </c>
+      <c r="D5" s="3">
         <v>31</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>40</v>
       </c>
-      <c r="E5" s="7">
-        <f t="shared" si="0"/>
-        <v>29.8</v>
-      </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>56</v>
+      </c>
+      <c r="J5">
+        <v>80</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>48.400000000000006</v>
+      </c>
+      <c r="L5">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>65</v>
-      </c>
-      <c r="C6" s="3">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>49</v>
+      </c>
+      <c r="D6" s="3">
         <v>41</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>50</v>
       </c>
-      <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>81</v>
+      </c>
+      <c r="J6">
+        <v>87</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>53.02</v>
+      </c>
+      <c r="L6">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>65</v>
-      </c>
-      <c r="C7" s="3">
+        <v>86</v>
+      </c>
+      <c r="C7" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>48</v>
+      </c>
+      <c r="D7" s="3">
         <v>51</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>60</v>
       </c>
-      <c r="E7" s="7">
-        <f t="shared" si="0"/>
-        <v>51.199999999999996</v>
-      </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>43.4</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>88</v>
+      </c>
+      <c r="J7">
+        <v>94</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>62.439999999999969</v>
+      </c>
+      <c r="L7">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>60</v>
-      </c>
-      <c r="C8" s="3">
+        <v>83</v>
+      </c>
+      <c r="C8" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>46</v>
+      </c>
+      <c r="D8" s="3">
         <v>61</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>70</v>
       </c>
-      <c r="E8" s="7">
-        <f t="shared" si="0"/>
-        <v>58.199999999999996</v>
-      </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>45.599999999999994</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>95</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="L8">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>57</v>
-      </c>
-      <c r="C9" s="3">
+        <v>82</v>
+      </c>
+      <c r="C9" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>46</v>
+      </c>
+      <c r="D9" s="3">
         <v>71</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>80</v>
       </c>
-      <c r="E9" s="7">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>48.2</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="L9">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>56</v>
-      </c>
-      <c r="C10" s="3">
+        <v>80</v>
+      </c>
+      <c r="C10" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>44</v>
+      </c>
+      <c r="D10" s="3">
         <v>81</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>90</v>
       </c>
-      <c r="E10" s="7">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>54.2</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="L10">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>50</v>
-      </c>
-      <c r="C11" s="3">
+        <v>79</v>
+      </c>
+      <c r="C11" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>44</v>
+      </c>
+      <c r="D11" s="3">
         <v>91</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>100</v>
       </c>
-      <c r="E11" s="7">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="L11">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2">
+        <v>77</v>
+      </c>
+      <c r="C12" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
         <v>43</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="F12">
+      <c r="D12" s="5"/>
+      <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>30</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C13" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>43</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="6">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C14" s="6">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>42</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="C15" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>42</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="C16" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>41</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="C17" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>41</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>20</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="C18" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>33</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H26" si="5">IF(G18&lt;=3,2,IF(G18&lt;=5,3,IF(G18&lt;=7,4,IF(G18&lt;=10,5))))</f>
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:M26" si="6">IF(L18&lt;=3,2,IF(L18&lt;=5,3,IF(L18&lt;=7,4,IF(L18&lt;=10,5))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="2">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="C19" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>32</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="2">
-        <v>7</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="C20" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>32</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="2">
-        <v>15</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="C21" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>32</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>43</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="C22" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>31</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="2">
-        <v>29</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>48</v>
+      </c>
+      <c r="C23" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>27</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="2">
-        <v>40</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="C24" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>26</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2">
+        <f>ROUND(Table32[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <f>IF(Table32[[#This Row],[Column1]]&lt;=$K$1,3,IF(Table32[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table32[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table32[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table32[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table32[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$7,8,IF(Table32[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F24">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="G40:G45 G35 G2:G26">
+    <cfRule type="top10" dxfId="17" priority="6" percent="1" bottom="1" rank="30"/>
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1075,7 +1864,2275 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" bottom="1" rank="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>141</v>
+      </c>
+      <c r="C2" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>78</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7">
+        <f>IF(Table35[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E2/100))</f>
+        <v>26.3</v>
+      </c>
+      <c r="G2">
+        <f>IF(C2&lt;=$F$2,1,IF(C2&lt;=$F$3,2,IF(C2&lt;=$F$4,3,IF(C2&lt;=$F$5,4,IF(C2&lt;=$F$6,5,IF(C2&lt;=$F$7,6,IF(C2&lt;=$F$8,7,IF(C2&lt;=$F$9,8,IF(C2&lt;=$F$10,9,IF(C2&lt;=$F$11,10))))))))))</f>
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f>IF(G2&lt;=3,2,IF(G2&lt;=5,3,IF(G2&lt;=7,4,IF(G2&lt;=10,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <f>PERCENTILE($C$2:$C$25,J2/100)</f>
+        <v>27.9</v>
+      </c>
+      <c r="L2">
+        <f>IF(C2&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <f>IF(L2&lt;=3,2,IF(L2&lt;=5,3,IF(L2&lt;=7,4,IF(L2&lt;=10,5))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>125</v>
+      </c>
+      <c r="C3" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>69</v>
+      </c>
+      <c r="D3" s="3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7">
+        <f>IF(Table35[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E3/100))</f>
+        <v>30.200000000000003</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G29" si="0">IF(C3&lt;=$F$2,1,IF(C3&lt;=$F$3,2,IF(C3&lt;=$F$4,3,IF(C3&lt;=$F$5,4,IF(C3&lt;=$F$6,5,IF(C3&lt;=$F$7,6,IF(C3&lt;=$F$8,7,IF(C3&lt;=$F$9,8,IF(C3&lt;=$F$10,9,IF(C3&lt;=$F$11,10))))))))))</f>
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H17" si="1">IF(G3&lt;=3,2,IF(G3&lt;=5,3,IF(G3&lt;=7,4,IF(G3&lt;=10,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="2">PERCENTILE($C$2:$C$25,J3/100)</f>
+        <v>31.9</v>
+      </c>
+      <c r="L3">
+        <f>IF(C3&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M17" si="3">IF(L3&lt;=3,2,IF(L3&lt;=5,3,IF(L3&lt;=7,4,IF(L3&lt;=10,5))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>117</v>
+      </c>
+      <c r="C4" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>65</v>
+      </c>
+      <c r="D4" s="3">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4" s="7">
+        <f>IF(Table35[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E4/100))</f>
+        <v>31.9</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>55</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>39.65</v>
+      </c>
+      <c r="L4">
+        <f>IF(C4&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>112</v>
+      </c>
+      <c r="C5" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>62</v>
+      </c>
+      <c r="D5" s="3">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5" s="7">
+        <f>IF(Table35[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E5/100))</f>
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>56</v>
+      </c>
+      <c r="J5">
+        <v>80</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>58.400000000000006</v>
+      </c>
+      <c r="L5">
+        <f>IF(C5&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>106</v>
+      </c>
+      <c r="C6" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>59</v>
+      </c>
+      <c r="D6" s="3">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6" s="7">
+        <f>IF(Table35[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E6/100))</f>
+        <v>38.5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>81</v>
+      </c>
+      <c r="J6">
+        <v>87</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>62.03</v>
+      </c>
+      <c r="L6">
+        <f>IF(C6&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>104</v>
+      </c>
+      <c r="C7" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>58</v>
+      </c>
+      <c r="D7" s="3">
+        <v>51</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7" s="7">
+        <f>IF(Table35[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E7/100))</f>
+        <v>42.4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>88</v>
+      </c>
+      <c r="J7">
+        <v>94</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>67.47999999999999</v>
+      </c>
+      <c r="L7">
+        <f>IF(C7&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>91</v>
+      </c>
+      <c r="C8" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>51</v>
+      </c>
+      <c r="D8" s="3">
+        <v>61</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+      <c r="F8" s="7">
+        <f>IF(Table35[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E8/100))</f>
+        <v>47.399999999999991</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>95</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="L8">
+        <f>IF(C8&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>84</v>
+      </c>
+      <c r="C9" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>47</v>
+      </c>
+      <c r="D9" s="3">
+        <v>71</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+      <c r="F9" s="7">
+        <f>IF(Table35[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E9/100))</f>
+        <v>58.400000000000006</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="L9">
+        <f>IF(C9&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>46</v>
+      </c>
+      <c r="D10" s="3">
+        <v>81</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+      <c r="F10" s="7">
+        <f>IF(Table35[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E10/100))</f>
+        <v>64.099999999999994</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="L10">
+        <f>IF(C10&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>43</v>
+      </c>
+      <c r="D11" s="3">
+        <v>91</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11" s="7">
+        <f>IF(Table35[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E11/100))</f>
+        <v>78</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="L11">
+        <f>IF(C11&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>72</v>
+      </c>
+      <c r="C12" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>40</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <f>IF(C12&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>39</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <f>IF(C13&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6">
+        <v>69</v>
+      </c>
+      <c r="C14" s="6">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>38</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <f>IF(C14&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <f>IF(C15&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <f>IF(C16&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>61</v>
+      </c>
+      <c r="C17" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>34</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <f>IF(C17&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H26" si="4">IF(G18&lt;=3,2,IF(G18&lt;=5,3,IF(G18&lt;=7,4,IF(G18&lt;=10,5))))</f>
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <f>IF(C18&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:M26" si="5">IF(L18&lt;=3,2,IF(L18&lt;=5,3,IF(L18&lt;=7,4,IF(L18&lt;=10,5))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>31</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <f>IF(C19&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>31</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <f>IF(C20&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>29</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <f>IF(C21&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <f>IF(C22&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>26</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <f>IF(C23&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <f>IF(C24&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>IF(C25&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <f>IF(C26&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>32</v>
+      </c>
+      <c r="C27" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>18</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H29" si="6">IF(G27&lt;=3,2,IF(G27&lt;=5,3,IF(G27&lt;=7,4,IF(G27&lt;=10,5))))</f>
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <f>IF(C27&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27:M29" si="7">IF(L27&lt;=3,2,IF(L27&lt;=5,3,IF(L27&lt;=7,4,IF(L27&lt;=10,5))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <f>IF(C28&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2">
+        <f>ROUND(Table35[[#This Row],[Баллы]]*100/180,0)</f>
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <f>IF(C29&lt;=$K$1,3,IF(Table35[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table35[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table35[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table35[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table35[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table35[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table35[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G40:G45 G35 G2:G29">
+    <cfRule type="top10" dxfId="11" priority="2" percent="1" bottom="1" rank="30"/>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="124" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>80</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7">
+        <f>IF(Table3[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E2/100))</f>
+        <v>39</v>
+      </c>
+      <c r="G2">
+        <f>IF(C2&lt;=$F$2,1,IF(C2&lt;=$F$3,2,IF(C2&lt;=$F$4,3,IF(C2&lt;=$F$5,4,IF(C2&lt;=$F$6,5,IF(C2&lt;=$F$7,6,IF(C2&lt;=$F$8,7,IF(C2&lt;=$F$9,8,IF(C2&lt;=$F$10,9,IF(C2&lt;=$F$11,10))))))))))</f>
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f>IF(G2&lt;=3,2,IF(G2&lt;=5,3,IF(G2&lt;=7,4,IF(G2&lt;=10,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <f>PERCENTILE($C$2:$C$29,J2/100)</f>
+        <v>38.049999999999997</v>
+      </c>
+      <c r="L2">
+        <f>IF(C2&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <f>IF(L2&lt;=3,2,IF(L2&lt;=5,3,IF(L2&lt;=7,4,IF(L2&lt;=10,5))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8">
+        <v>108</v>
+      </c>
+      <c r="C3" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>77</v>
+      </c>
+      <c r="D3" s="3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7">
+        <f>IF(Table3[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E3/100))</f>
+        <v>40.6</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G32" si="0">IF(C3&lt;=$F$2,1,IF(C3&lt;=$F$3,2,IF(C3&lt;=$F$4,3,IF(C3&lt;=$F$5,4,IF(C3&lt;=$F$6,5,IF(C3&lt;=$F$7,6,IF(C3&lt;=$F$8,7,IF(C3&lt;=$F$9,8,IF(C3&lt;=$F$10,9,IF(C3&lt;=$F$11,10))))))))))</f>
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H17" si="1">IF(G3&lt;=3,2,IF(G3&lt;=5,3,IF(G3&lt;=7,4,IF(G3&lt;=10,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="2">PERCENTILE($C$2:$C$29,J3/100)</f>
+        <v>40.1</v>
+      </c>
+      <c r="L3">
+        <f>IF(C3&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M17" si="3">IF(L3&lt;=3,2,IF(L3&lt;=5,3,IF(L3&lt;=7,4,IF(L3&lt;=10,5))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>71</v>
+      </c>
+      <c r="D4" s="3">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4" s="7">
+        <f>IF(Table3[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E4/100))</f>
+        <v>47.36666666666666</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>55</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>53.7</v>
+      </c>
+      <c r="L4">
+        <f>IF(C4&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>71</v>
+      </c>
+      <c r="D5" s="3">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5" s="7">
+        <f>IF(Table3[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E5/100))</f>
+        <v>52</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>56</v>
+      </c>
+      <c r="J5">
+        <v>80</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>64.2</v>
+      </c>
+      <c r="L5">
+        <f>IF(C5&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>66</v>
+      </c>
+      <c r="D6" s="3">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6" s="7">
+        <f>IF(Table3[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E6/100))</f>
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>81</v>
+      </c>
+      <c r="J6">
+        <v>87</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>68.449999999999989</v>
+      </c>
+      <c r="L6">
+        <f>IF(C6&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8">
+        <v>91</v>
+      </c>
+      <c r="C7" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>65</v>
+      </c>
+      <c r="D7" s="3">
+        <v>51</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7" s="7">
+        <f>IF(Table3[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E7/100))</f>
+        <v>60.4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>88</v>
+      </c>
+      <c r="J7">
+        <v>94</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>73.28</v>
+      </c>
+      <c r="L7">
+        <f>IF(C7&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>63</v>
+      </c>
+      <c r="D8" s="3">
+        <v>61</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+      <c r="F8" s="7">
+        <f>IF(Table3[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E8/100))</f>
+        <v>63</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I8" s="7">
+        <v>95</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="L8">
+        <f>IF(C8&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>63</v>
+      </c>
+      <c r="D9" s="3">
+        <v>71</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+      <c r="F9" s="7">
+        <f>IF(Table3[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E9/100))</f>
+        <v>65.400000000000006</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="L9">
+        <f>IF(C9&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2">
+        <v>62</v>
+      </c>
+      <c r="D10" s="3">
+        <v>81</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+      <c r="F10" s="7">
+        <f>IF(Table3[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E10/100))</f>
+        <v>71</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="L10">
+        <f>IF(C10&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>61</v>
+      </c>
+      <c r="D11" s="3">
+        <v>91</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11" s="7">
+        <f>IF(Table3[[#This Row],[Column1]]&gt;=40,PERCENTILE($C$2:$C$25,E11/100))</f>
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="L11">
+        <f>IF(C11&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8">
+        <v>81</v>
+      </c>
+      <c r="C12" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>58</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <f>IF(C12&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="8">
+        <v>79</v>
+      </c>
+      <c r="C13" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>56</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <f>IF(C13&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>54</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <f>IF(C14&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="8">
+        <v>73</v>
+      </c>
+      <c r="C15" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>52</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <f>IF(C15&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8">
+        <v>73</v>
+      </c>
+      <c r="C16" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>52</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <f>IF(C16&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="8">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>49</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <f>IF(C17&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="8">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>48</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H26" si="4">IF(G18&lt;=3,2,IF(G18&lt;=5,3,IF(G18&lt;=7,4,IF(G18&lt;=10,5))))</f>
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <f>IF(C18&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:M26" si="5">IF(L18&lt;=3,2,IF(L18&lt;=5,3,IF(L18&lt;=7,4,IF(L18&lt;=10,5))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="8">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2">
+        <f>25/60*100</f>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <f>IF(C19&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="8">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>41</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <f>IF(C20&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="8">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>40</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <f>IF(C21&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="8">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>39</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <f>IF(C22&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="8">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>39</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <f>IF(C23&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="8">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>39</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <f>IF(C24&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="8">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>38</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>IF(C25&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="8">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>36</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <f>IF(C26&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="8">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>35</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H32" si="6">IF(G27&lt;=3,2,IF(G27&lt;=5,3,IF(G27&lt;=7,4,IF(G27&lt;=10,5))))</f>
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <f>IF(C27&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27:M32" si="7">IF(L27&lt;=3,2,IF(L27&lt;=5,3,IF(L27&lt;=7,4,IF(L27&lt;=10,5))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="8">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <f>IF(C28&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="8">
+        <v>44</v>
+      </c>
+      <c r="C29" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>31</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <f>IF(C29&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="8">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2">
+        <f>14/60*100</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <f>IF(C30&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="8">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>22</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <f>IF(C31&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="8">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2">
+        <f>ROUND(Table3[[#This Row],[Баллы]]*100/140,0)</f>
+        <v>19</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <f>IF(C32&lt;=$K$1,3,IF(Table3[[#This Row],[Column1]]&lt;=$K$2,4,IF(Table3[[#This Row],[Column1]]&lt;=$K$3,5,IF(Table3[[#This Row],[Column1]]&lt;=$K$4,6,IF(Table3[[#This Row],[Column1]]&lt;=$K$5,7,IF(Table3[[#This Row],[Column1]]&lt;=$K$6,8,IF(Table3[[#This Row],[Column1]]&lt;=$K$7,9,IF(Table3[[#This Row],[Column1]]&lt;=$K$8,10))))))))</f>
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G40:G45 G35 G2:G32">
+    <cfRule type="top10" dxfId="5" priority="11" percent="1" bottom="1" rank="30"/>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Scores_ex.xlsx
+++ b/Scores_ex.xlsx
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="124" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>

--- a/Scores_ex.xlsx
+++ b/Scores_ex.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Out of 5</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Student 31</t>
   </si>
   <si>
-    <t>Lower</t>
-  </si>
-  <si>
     <t xml:space="preserve">Upper </t>
   </si>
   <si>
@@ -171,6 +168,15 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">% </t>
   </si>
 </sst>
 </file>
@@ -237,12 +243,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -524,80 +531,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="124" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="4">
-        <v>30</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4">
+        <v>30</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -638,29 +651,36 @@
         <f>(B2+C2+D2+E2)/4*0.2+(F2+G2+H2+I2+J2)/5*0.1+K2*0.3+L2*0.4</f>
         <v>80.67</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>1</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
         <v>10</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>15</v>
       </c>
-      <c r="Q2">
-        <f>PERCENTILE($M$2:$M$29,P2/100)</f>
+      <c r="S2">
+        <f>PERCENTILE($M$2:$M$29,R2/100)</f>
         <v>38.613</v>
       </c>
-      <c r="R2">
-        <f>IF(M2&lt;=$Q$1,3,IF(M2&lt;=$Q$2,4,IF(M2&lt;=$Q$3,5,IF(M2&lt;=$Q$4,6,IF(M2&lt;=$Q$5,7,IF(M2&lt;=$Q$6,8,IF(M2&lt;=$Q$7,9,IF(M2&lt;=$Q$8,10))))))))</f>
+      <c r="T2">
+        <f t="shared" ref="T2:T32" si="0">IF(M2&lt;=$S$1,3,IF(M2&lt;=$S$2,4,IF(M2&lt;=$S$3,5,IF(M2&lt;=$S$4,6,IF(M2&lt;=$S$5,7,IF(M2&lt;=$S$6,8,IF(M2&lt;=$S$7,9,IF(M2&lt;=$S$8,10))))))))</f>
         <v>10</v>
       </c>
-      <c r="S2">
-        <f>IF(R2&lt;=3,2,IF(R2&lt;=5,3,IF(R2&lt;=7,4,IF(R2&lt;=10,5))))</f>
+      <c r="U2">
+        <f>IF(T2&lt;=3,2,IF(T2&lt;=5,3,IF(T2&lt;=7,4,IF(T2&lt;=10,5))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -698,32 +718,39 @@
         <v>69</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M32" si="0">(B3+C3+D3+E3)/4*0.2+(F3+G3+H3+I3+J3)/5*0.1+K3*0.3+L3*0.4</f>
+        <f t="shared" ref="M3:M32" si="1">(B3+C3+D3+E3)/4*0.2+(F3+G3+H3+I3+J3)/5*0.1+K3*0.3+L3*0.4</f>
         <v>77.13</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
+        <v>2</v>
+      </c>
+      <c r="O3" s="5">
+        <f>100-N2/$N$29*100</f>
+        <v>96.428571428571431</v>
+      </c>
+      <c r="P3" s="2">
         <v>11</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>20</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>30</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q7" si="1">PERCENTILE($M$2:$M$29,P3/100)</f>
+      <c r="S3">
+        <f t="shared" ref="S3:S7" si="2">PERCENTILE($M$2:$M$29,R3/100)</f>
         <v>40.468000000000004</v>
       </c>
-      <c r="R3">
-        <f>IF(M3&lt;=$Q$1,3,IF(M3&lt;=$Q$2,4,IF(M3&lt;=$Q$3,5,IF(M3&lt;=$Q$4,6,IF(M3&lt;=$Q$5,7,IF(M3&lt;=$Q$6,8,IF(M3&lt;=$Q$7,9,IF(M3&lt;=$Q$8,10))))))))</f>
+      <c r="T3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S17" si="2">IF(R3&lt;=3,2,IF(R3&lt;=5,3,IF(R3&lt;=7,4,IF(R3&lt;=10,5))))</f>
+      <c r="U3">
+        <f t="shared" ref="U3:U17" si="3">IF(T3&lt;=3,2,IF(T3&lt;=5,3,IF(T3&lt;=7,4,IF(T3&lt;=10,5))))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,32 +788,39 @@
         <v>64</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71.16</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
+        <v>3</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" ref="O4:O29" si="4">100-N3/$N$29*100</f>
+        <v>92.857142857142861</v>
+      </c>
+      <c r="P4" s="2">
         <v>21</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>30</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>55</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="1"/>
-        <v>54.240000000000009</v>
-      </c>
-      <c r="R4">
-        <f>IF(M4&lt;=$Q$1,3,IF(M4&lt;=$Q$2,4,IF(M4&lt;=$Q$3,5,IF(M4&lt;=$Q$4,6,IF(M4&lt;=$Q$5,7,IF(M4&lt;=$Q$6,8,IF(M4&lt;=$Q$7,9,IF(M4&lt;=$Q$8,10))))))))</f>
-        <v>9</v>
       </c>
       <c r="S4">
         <f t="shared" si="2"/>
+        <v>54.240000000000009</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,32 +858,39 @@
         <v>76</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71.070000000000007</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="4"/>
+        <v>89.285714285714292</v>
+      </c>
+      <c r="P5" s="2">
         <v>31</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>40</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>80</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>64.990000000000009</v>
-      </c>
-      <c r="R5">
-        <f>IF(M5&lt;=$Q$1,3,IF(M5&lt;=$Q$2,4,IF(M5&lt;=$Q$3,5,IF(M5&lt;=$Q$4,6,IF(M5&lt;=$Q$5,7,IF(M5&lt;=$Q$6,8,IF(M5&lt;=$Q$7,9,IF(M5&lt;=$Q$8,10))))))))</f>
-        <v>9</v>
       </c>
       <c r="S5">
         <f t="shared" si="2"/>
+        <v>64.990000000000009</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,32 +928,39 @@
         <v>65</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66.12</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="4"/>
+        <v>85.714285714285722</v>
+      </c>
+      <c r="P6" s="2">
         <v>41</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>50</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>87</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>68.545500000000004</v>
-      </c>
-      <c r="R6">
-        <f>IF(M6&lt;=$Q$1,3,IF(M6&lt;=$Q$2,4,IF(M6&lt;=$Q$3,5,IF(M6&lt;=$Q$4,6,IF(M6&lt;=$Q$5,7,IF(M6&lt;=$Q$6,8,IF(M6&lt;=$Q$7,9,IF(M6&lt;=$Q$8,10))))))))</f>
-        <v>8</v>
       </c>
       <c r="S6">
         <f t="shared" si="2"/>
+        <v>68.545500000000004</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,32 +998,39 @@
         <v>66</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.710000000000008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
+        <v>6</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="4"/>
+        <v>82.142857142857139</v>
+      </c>
+      <c r="P7" s="2">
         <v>51</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>60</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>94</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>73.428599999999989</v>
-      </c>
-      <c r="R7">
-        <f>IF(M7&lt;=$Q$1,3,IF(M7&lt;=$Q$2,4,IF(M7&lt;=$Q$3,5,IF(M7&lt;=$Q$4,6,IF(M7&lt;=$Q$5,7,IF(M7&lt;=$Q$6,8,IF(M7&lt;=$Q$7,9,IF(M7&lt;=$Q$8,10))))))))</f>
-        <v>8</v>
       </c>
       <c r="S7">
         <f t="shared" si="2"/>
+        <v>73.428599999999989</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1013,32 +1068,39 @@
         <v>61</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63.910000000000011</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
+        <v>7</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="4"/>
+        <v>78.571428571428569</v>
+      </c>
+      <c r="P8" s="2">
         <v>61</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>70</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>100</v>
       </c>
-      <c r="Q8">
-        <f>PERCENTILE($M$2:$M$29,P8/100)</f>
+      <c r="S8">
+        <f>PERCENTILE($M$2:$M$29,R8/100)</f>
         <v>80.67</v>
       </c>
-      <c r="R8">
-        <f>IF(M8&lt;=$Q$1,3,IF(M8&lt;=$Q$2,4,IF(M8&lt;=$Q$3,5,IF(M8&lt;=$Q$4,6,IF(M8&lt;=$Q$5,7,IF(M8&lt;=$Q$6,8,IF(M8&lt;=$Q$7,9,IF(M8&lt;=$Q$8,10))))))))</f>
+      <c r="T8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S8">
-        <f t="shared" si="2"/>
+      <c r="U8">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,25 +1138,32 @@
         <v>62</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63.19</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
+        <v>8</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="P9" s="2">
         <v>71</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>80</v>
       </c>
-      <c r="R9">
-        <f>IF(M9&lt;=$Q$1,3,IF(M9&lt;=$Q$2,4,IF(M9&lt;=$Q$3,5,IF(M9&lt;=$Q$4,6,IF(M9&lt;=$Q$5,7,IF(M9&lt;=$Q$6,8,IF(M9&lt;=$Q$7,9,IF(M9&lt;=$Q$8,10))))))))</f>
+      <c r="T9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S9">
-        <f t="shared" si="2"/>
+      <c r="U9">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1132,25 +1201,32 @@
         <v>61</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62.64</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
+        <v>9</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="4"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="P10" s="2">
         <v>81</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>90</v>
       </c>
-      <c r="R10">
-        <f>IF(M10&lt;=$Q$1,3,IF(M10&lt;=$Q$2,4,IF(M10&lt;=$Q$3,5,IF(M10&lt;=$Q$4,6,IF(M10&lt;=$Q$5,7,IF(M10&lt;=$Q$6,8,IF(M10&lt;=$Q$7,9,IF(M10&lt;=$Q$8,10))))))))</f>
+      <c r="T10">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="2"/>
+      <c r="U10">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1188,25 +1264,32 @@
         <v>59</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61.85</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
+        <v>10</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="4"/>
+        <v>67.857142857142861</v>
+      </c>
+      <c r="P11" s="2">
         <v>91</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>100</v>
       </c>
-      <c r="R11">
-        <f>IF(M11&lt;=$Q$1,3,IF(M11&lt;=$Q$2,4,IF(M11&lt;=$Q$3,5,IF(M11&lt;=$Q$4,6,IF(M11&lt;=$Q$5,7,IF(M11&lt;=$Q$6,8,IF(M11&lt;=$Q$7,9,IF(M11&lt;=$Q$8,10))))))))</f>
+      <c r="T11">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="2"/>
+      <c r="U11">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1244,20 +1327,27 @@
         <v>57</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.349999999999994</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="R12">
-        <f>IF(M12&lt;=$Q$1,3,IF(M12&lt;=$Q$2,4,IF(M12&lt;=$Q$3,5,IF(M12&lt;=$Q$4,6,IF(M12&lt;=$Q$5,7,IF(M12&lt;=$Q$6,8,IF(M12&lt;=$Q$7,9,IF(M12&lt;=$Q$8,10))))))))</f>
+      <c r="N12" s="1">
+        <v>11</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="4"/>
+        <v>64.285714285714278</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="T12">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="2"/>
+      <c r="U12">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,20 +1385,27 @@
         <v>55</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56.16</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="R13">
-        <f>IF(M13&lt;=$Q$1,3,IF(M13&lt;=$Q$2,4,IF(M13&lt;=$Q$3,5,IF(M13&lt;=$Q$4,6,IF(M13&lt;=$Q$5,7,IF(M13&lt;=$Q$6,8,IF(M13&lt;=$Q$7,9,IF(M13&lt;=$Q$8,10))))))))</f>
+      <c r="N13" s="1">
+        <v>12</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="4"/>
+        <v>60.714285714285715</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="T13">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S13">
-        <f t="shared" si="2"/>
+      <c r="U13">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,20 +1443,27 @@
         <v>52</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.510000000000005</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="R14">
-        <f>IF(M14&lt;=$Q$1,3,IF(M14&lt;=$Q$2,4,IF(M14&lt;=$Q$3,5,IF(M14&lt;=$Q$4,6,IF(M14&lt;=$Q$5,7,IF(M14&lt;=$Q$6,8,IF(M14&lt;=$Q$7,9,IF(M14&lt;=$Q$8,10))))))))</f>
+      <c r="N14" s="1">
+        <v>13</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="4"/>
+        <v>57.142857142857146</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="T14">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S14">
-        <f t="shared" si="2"/>
+      <c r="U14">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1397,19 +1501,26 @@
         <v>51</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52.710000000000008</v>
       </c>
-      <c r="R15">
-        <f>IF(M15&lt;=$Q$1,3,IF(M15&lt;=$Q$2,4,IF(M15&lt;=$Q$3,5,IF(M15&lt;=$Q$4,6,IF(M15&lt;=$Q$5,7,IF(M15&lt;=$Q$6,8,IF(M15&lt;=$Q$7,9,IF(M15&lt;=$Q$8,10))))))))</f>
+      <c r="N15" s="1">
+        <v>14</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="4"/>
+        <v>53.571428571428569</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="2"/>
+      <c r="U15">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1447,19 +1558,26 @@
         <v>50</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52.57</v>
       </c>
-      <c r="R16">
-        <f>IF(M16&lt;=$Q$1,3,IF(M16&lt;=$Q$2,4,IF(M16&lt;=$Q$3,5,IF(M16&lt;=$Q$4,6,IF(M16&lt;=$Q$5,7,IF(M16&lt;=$Q$6,8,IF(M16&lt;=$Q$7,9,IF(M16&lt;=$Q$8,10))))))))</f>
+      <c r="N16" s="1">
+        <v>15</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S16">
-        <f t="shared" si="2"/>
+      <c r="U16">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1497,19 +1615,26 @@
         <v>45</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49.23</v>
       </c>
-      <c r="R17">
-        <f>IF(M17&lt;=$Q$1,3,IF(M17&lt;=$Q$2,4,IF(M17&lt;=$Q$3,5,IF(M17&lt;=$Q$4,6,IF(M17&lt;=$Q$5,7,IF(M17&lt;=$Q$6,8,IF(M17&lt;=$Q$7,9,IF(M17&lt;=$Q$8,10))))))))</f>
+      <c r="N17" s="1">
+        <v>16</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="4"/>
+        <v>46.428571428571431</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="2"/>
+      <c r="U17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1547,19 +1672,26 @@
         <v>45</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48.61</v>
       </c>
-      <c r="R18">
-        <f>IF(M18&lt;=$Q$1,3,IF(M18&lt;=$Q$2,4,IF(M18&lt;=$Q$3,5,IF(M18&lt;=$Q$4,6,IF(M18&lt;=$Q$5,7,IF(M18&lt;=$Q$6,8,IF(M18&lt;=$Q$7,9,IF(M18&lt;=$Q$8,10))))))))</f>
+      <c r="N18" s="1">
+        <v>17</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="4"/>
+        <v>42.857142857142861</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S18">
-        <f t="shared" ref="S18:S26" si="3">IF(R18&lt;=3,2,IF(R18&lt;=5,3,IF(R18&lt;=7,4,IF(R18&lt;=10,5))))</f>
+      <c r="U18">
+        <f t="shared" ref="U18:U26" si="5">IF(T18&lt;=3,2,IF(T18&lt;=5,3,IF(T18&lt;=7,4,IF(T18&lt;=10,5))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1597,19 +1729,26 @@
         <v>30</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41.8</v>
       </c>
-      <c r="R19">
-        <f>IF(M19&lt;=$Q$1,3,IF(M19&lt;=$Q$2,4,IF(M19&lt;=$Q$3,5,IF(M19&lt;=$Q$4,6,IF(M19&lt;=$Q$5,7,IF(M19&lt;=$Q$6,8,IF(M19&lt;=$Q$7,9,IF(M19&lt;=$Q$8,10))))))))</f>
+      <c r="N19" s="1">
+        <v>18</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="4"/>
+        <v>39.285714285714292</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="3"/>
+      <c r="U19">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1647,19 +1786,26 @@
         <v>30</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41.53</v>
       </c>
-      <c r="R20">
-        <f>IF(M20&lt;=$Q$1,3,IF(M20&lt;=$Q$2,4,IF(M20&lt;=$Q$3,5,IF(M20&lt;=$Q$4,6,IF(M20&lt;=$Q$5,7,IF(M20&lt;=$Q$6,8,IF(M20&lt;=$Q$7,9,IF(M20&lt;=$Q$8,10))))))))</f>
+      <c r="N20" s="1">
+        <v>19</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="4"/>
+        <v>35.714285714285708</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="3"/>
+      <c r="U20">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1697,19 +1843,26 @@
         <v>22</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40.35</v>
       </c>
-      <c r="R21">
-        <f>IF(M21&lt;=$Q$1,3,IF(M21&lt;=$Q$2,4,IF(M21&lt;=$Q$3,5,IF(M21&lt;=$Q$4,6,IF(M21&lt;=$Q$5,7,IF(M21&lt;=$Q$6,8,IF(M21&lt;=$Q$7,9,IF(M21&lt;=$Q$8,10))))))))</f>
+      <c r="N21" s="1">
+        <v>20</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="4"/>
+        <v>32.142857142857139</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="S21">
-        <f t="shared" si="3"/>
+      <c r="U21">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1747,19 +1900,26 @@
         <v>21</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-      <c r="R22">
-        <f>IF(M22&lt;=$Q$1,3,IF(M22&lt;=$Q$2,4,IF(M22&lt;=$Q$3,5,IF(M22&lt;=$Q$4,6,IF(M22&lt;=$Q$5,7,IF(M22&lt;=$Q$6,8,IF(M22&lt;=$Q$7,9,IF(M22&lt;=$Q$8,10))))))))</f>
+      <c r="N22" s="1">
+        <v>21</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="4"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="S22">
-        <f t="shared" si="3"/>
+      <c r="U22">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1797,19 +1957,26 @@
         <v>21</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.67</v>
       </c>
-      <c r="R23">
-        <f>IF(M23&lt;=$Q$1,3,IF(M23&lt;=$Q$2,4,IF(M23&lt;=$Q$3,5,IF(M23&lt;=$Q$4,6,IF(M23&lt;=$Q$5,7,IF(M23&lt;=$Q$6,8,IF(M23&lt;=$Q$7,9,IF(M23&lt;=$Q$8,10))))))))</f>
+      <c r="N23" s="1">
+        <v>22</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="S23">
-        <f t="shared" si="3"/>
+      <c r="U23">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1847,19 +2014,26 @@
         <v>21</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.049999999999997</v>
       </c>
-      <c r="R24">
-        <f>IF(M24&lt;=$Q$1,3,IF(M24&lt;=$Q$2,4,IF(M24&lt;=$Q$3,5,IF(M24&lt;=$Q$4,6,IF(M24&lt;=$Q$5,7,IF(M24&lt;=$Q$6,8,IF(M24&lt;=$Q$7,9,IF(M24&lt;=$Q$8,10))))))))</f>
+      <c r="N24" s="1">
+        <v>23</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="4"/>
+        <v>21.428571428571431</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="S24">
-        <f t="shared" si="3"/>
+      <c r="U24">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1897,19 +2071,26 @@
         <v>20</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.590000000000003</v>
       </c>
-      <c r="R25">
-        <f>IF(M25&lt;=$Q$1,3,IF(M25&lt;=$Q$2,4,IF(M25&lt;=$Q$3,5,IF(M25&lt;=$Q$4,6,IF(M25&lt;=$Q$5,7,IF(M25&lt;=$Q$6,8,IF(M25&lt;=$Q$7,9,IF(M25&lt;=$Q$8,10))))))))</f>
+      <c r="N25" s="1">
+        <v>24</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="4"/>
+        <v>17.857142857142861</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S25">
-        <f t="shared" si="3"/>
+      <c r="U25">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1947,19 +2128,26 @@
         <v>20</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.67</v>
       </c>
-      <c r="R26">
-        <f>IF(M26&lt;=$Q$1,3,IF(M26&lt;=$Q$2,4,IF(M26&lt;=$Q$3,5,IF(M26&lt;=$Q$4,6,IF(M26&lt;=$Q$5,7,IF(M26&lt;=$Q$6,8,IF(M26&lt;=$Q$7,9,IF(M26&lt;=$Q$8,10))))))))</f>
+      <c r="N26" s="1">
+        <v>25</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="4"/>
+        <v>14.285714285714292</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S26">
-        <f t="shared" si="3"/>
+      <c r="U26">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1997,19 +2185,26 @@
         <v>23</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.61</v>
       </c>
-      <c r="R27">
-        <f>IF(M27&lt;=$Q$1,3,IF(M27&lt;=$Q$2,4,IF(M27&lt;=$Q$3,5,IF(M27&lt;=$Q$4,6,IF(M27&lt;=$Q$5,7,IF(M27&lt;=$Q$6,8,IF(M27&lt;=$Q$7,9,IF(M27&lt;=$Q$8,10))))))))</f>
+      <c r="N27" s="1">
+        <v>26</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="4"/>
+        <v>10.714285714285708</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S27">
-        <f t="shared" ref="S27:S32" si="4">IF(R27&lt;=3,2,IF(R27&lt;=5,3,IF(R27&lt;=7,4,IF(R27&lt;=10,5))))</f>
+      <c r="U27">
+        <f t="shared" ref="U27:U32" si="6">IF(T27&lt;=3,2,IF(T27&lt;=5,3,IF(T27&lt;=7,4,IF(T27&lt;=10,5))))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2047,19 +2242,26 @@
         <v>20</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.46</v>
       </c>
-      <c r="R28">
-        <f>IF(M28&lt;=$Q$1,3,IF(M28&lt;=$Q$2,4,IF(M28&lt;=$Q$3,5,IF(M28&lt;=$Q$4,6,IF(M28&lt;=$Q$5,7,IF(M28&lt;=$Q$6,8,IF(M28&lt;=$Q$7,9,IF(M28&lt;=$Q$8,10))))))))</f>
+      <c r="N28" s="1">
+        <v>27</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="4"/>
+        <v>7.1428571428571388</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S28">
-        <f t="shared" si="4"/>
+      <c r="U28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2097,19 +2299,26 @@
         <v>20</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.38</v>
       </c>
-      <c r="R29">
-        <f>IF(M29&lt;=$Q$1,3,IF(M29&lt;=$Q$2,4,IF(M29&lt;=$Q$3,5,IF(M29&lt;=$Q$4,6,IF(M29&lt;=$Q$5,7,IF(M29&lt;=$Q$6,8,IF(M29&lt;=$Q$7,9,IF(M29&lt;=$Q$8,10))))))))</f>
+      <c r="N29" s="1">
+        <v>28</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="4"/>
+        <v>3.5714285714285694</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S29">
-        <f t="shared" si="4"/>
+      <c r="U29">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2147,19 +2356,26 @@
         <v>17</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
-      <c r="R30">
-        <f>IF(M30&lt;=$Q$1,3,IF(M30&lt;=$Q$2,4,IF(M30&lt;=$Q$3,5,IF(M30&lt;=$Q$4,6,IF(M30&lt;=$Q$5,7,IF(M30&lt;=$Q$6,8,IF(M30&lt;=$Q$7,9,IF(M30&lt;=$Q$8,10))))))))</f>
+      <c r="N30" s="1">
+        <v>29</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" ref="O4:O32" si="7">100-N29/$N$29*100</f>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="S30">
-        <f t="shared" si="4"/>
+      <c r="U30">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2197,19 +2413,25 @@
         <v>19</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.490000000000002</v>
       </c>
-      <c r="R31">
-        <f>IF(M31&lt;=$Q$1,3,IF(M31&lt;=$Q$2,4,IF(M31&lt;=$Q$3,5,IF(M31&lt;=$Q$4,6,IF(M31&lt;=$Q$5,7,IF(M31&lt;=$Q$6,8,IF(M31&lt;=$Q$7,9,IF(M31&lt;=$Q$8,10))))))))</f>
+      <c r="N31" s="1">
+        <v>30</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="S31">
-        <f t="shared" si="4"/>
+      <c r="U31">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2247,20 +2469,26 @@
         <v>20</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.59</v>
       </c>
-      <c r="R32">
-        <f>IF(M32&lt;=$Q$1,3,IF(M32&lt;=$Q$2,4,IF(M32&lt;=$Q$3,5,IF(M32&lt;=$Q$4,6,IF(M32&lt;=$Q$5,7,IF(M32&lt;=$Q$6,8,IF(M32&lt;=$Q$7,9,IF(M32&lt;=$Q$8,10))))))))</f>
+      <c r="N32" s="1">
+        <v>31</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="S32">
-        <f t="shared" si="4"/>
+      <c r="U32">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R1:R1048576">
+  <conditionalFormatting sqref="T1:T1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Scores_ex.xlsx
+++ b/Scores_ex.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,7 +672,7 @@
         <v>38.613</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T32" si="0">IF(M2&lt;=$S$1,3,IF(M2&lt;=$S$2,4,IF(M2&lt;=$S$3,5,IF(M2&lt;=$S$4,6,IF(M2&lt;=$S$5,7,IF(M2&lt;=$S$6,8,IF(M2&lt;=$S$7,9,IF(M2&lt;=$S$8,10))))))))</f>
+        <f>IF(M2&lt;=$S$1,3,IF(M2&lt;=$S$2,4,IF(M2&lt;=$S$3,5,IF(M2&lt;=$S$4,6,IF(M2&lt;=$S$5,7,IF(M2&lt;=$S$6,8,IF(M2&lt;=$S$7,9,IF(M2&lt;=$S$8,10))))))))</f>
         <v>10</v>
       </c>
       <c r="U2">
@@ -718,7 +718,7 @@
         <v>69</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M32" si="1">(B3+C3+D3+E3)/4*0.2+(F3+G3+H3+I3+J3)/5*0.1+K3*0.3+L3*0.4</f>
+        <f t="shared" ref="M3:M32" si="0">(B3+C3+D3+E3)/4*0.2+(F3+G3+H3+I3+J3)/5*0.1+K3*0.3+L3*0.4</f>
         <v>77.13</v>
       </c>
       <c r="N3" s="1">
@@ -738,15 +738,15 @@
         <v>30</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S7" si="2">PERCENTILE($M$2:$M$29,R3/100)</f>
+        <f t="shared" ref="S3:S7" si="1">PERCENTILE($M$2:$M$29,R3/100)</f>
         <v>40.468000000000004</v>
       </c>
       <c r="T3">
-        <f t="shared" si="0"/>
+        <f>IF(M3&lt;=$S$1,3,IF(M3&lt;=$S$2,4,IF(M3&lt;=$S$3,5,IF(M3&lt;=$S$4,6,IF(M3&lt;=$S$5,7,IF(M3&lt;=$S$6,8,IF(M3&lt;=$S$7,9,IF(M3&lt;=$S$8,10))))))))</f>
         <v>10</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U17" si="3">IF(T3&lt;=3,2,IF(T3&lt;=5,3,IF(T3&lt;=7,4,IF(T3&lt;=10,5))))</f>
+        <f t="shared" ref="U3:U17" si="2">IF(T3&lt;=3,2,IF(T3&lt;=5,3,IF(T3&lt;=7,4,IF(T3&lt;=10,5))))</f>
         <v>5</v>
       </c>
     </row>
@@ -788,14 +788,14 @@
         <v>64</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>71.16</v>
       </c>
       <c r="N4" s="1">
         <v>3</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" ref="O4:O29" si="4">100-N3/$N$29*100</f>
+        <f t="shared" ref="O4:O29" si="3">100-N3/$N$29*100</f>
         <v>92.857142857142861</v>
       </c>
       <c r="P4" s="2">
@@ -808,15 +808,15 @@
         <v>55</v>
       </c>
       <c r="S4">
+        <f t="shared" si="1"/>
+        <v>54.240000000000009</v>
+      </c>
+      <c r="T4">
+        <f>IF(M4&lt;=$S$1,3,IF(M4&lt;=$S$2,4,IF(M4&lt;=$S$3,5,IF(M4&lt;=$S$4,6,IF(M4&lt;=$S$5,7,IF(M4&lt;=$S$6,8,IF(M4&lt;=$S$7,9,IF(M4&lt;=$S$8,10))))))))</f>
+        <v>9</v>
+      </c>
+      <c r="U4">
         <f t="shared" si="2"/>
-        <v>54.240000000000009</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -858,14 +858,14 @@
         <v>76</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>71.070000000000007</v>
       </c>
       <c r="N5" s="1">
         <v>4</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>89.285714285714292</v>
       </c>
       <c r="P5" s="2">
@@ -878,15 +878,15 @@
         <v>80</v>
       </c>
       <c r="S5">
+        <f t="shared" si="1"/>
+        <v>64.990000000000009</v>
+      </c>
+      <c r="T5">
+        <f>IF(M5&lt;=$S$1,3,IF(M5&lt;=$S$2,4,IF(M5&lt;=$S$3,5,IF(M5&lt;=$S$4,6,IF(M5&lt;=$S$5,7,IF(M5&lt;=$S$6,8,IF(M5&lt;=$S$7,9,IF(M5&lt;=$S$8,10))))))))</f>
+        <v>9</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="2"/>
-        <v>64.990000000000009</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -928,14 +928,14 @@
         <v>65</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>66.12</v>
       </c>
       <c r="N6" s="1">
         <v>5</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>85.714285714285722</v>
       </c>
       <c r="P6" s="2">
@@ -948,15 +948,15 @@
         <v>87</v>
       </c>
       <c r="S6">
+        <f t="shared" si="1"/>
+        <v>68.545500000000004</v>
+      </c>
+      <c r="T6">
+        <f>IF(M6&lt;=$S$1,3,IF(M6&lt;=$S$2,4,IF(M6&lt;=$S$3,5,IF(M6&lt;=$S$4,6,IF(M6&lt;=$S$5,7,IF(M6&lt;=$S$6,8,IF(M6&lt;=$S$7,9,IF(M6&lt;=$S$8,10))))))))</f>
+        <v>8</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="2"/>
-        <v>68.545500000000004</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -998,14 +998,14 @@
         <v>66</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>65.710000000000008</v>
       </c>
       <c r="N7" s="1">
         <v>6</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>82.142857142857139</v>
       </c>
       <c r="P7" s="2">
@@ -1018,15 +1018,15 @@
         <v>94</v>
       </c>
       <c r="S7">
+        <f t="shared" si="1"/>
+        <v>73.428599999999989</v>
+      </c>
+      <c r="T7">
+        <f>IF(M7&lt;=$S$1,3,IF(M7&lt;=$S$2,4,IF(M7&lt;=$S$3,5,IF(M7&lt;=$S$4,6,IF(M7&lt;=$S$5,7,IF(M7&lt;=$S$6,8,IF(M7&lt;=$S$7,9,IF(M7&lt;=$S$8,10))))))))</f>
+        <v>8</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="2"/>
-        <v>73.428599999999989</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -1068,14 +1068,14 @@
         <v>61</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>63.910000000000011</v>
       </c>
       <c r="N8" s="1">
         <v>7</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>78.571428571428569</v>
       </c>
       <c r="P8" s="2">
@@ -1092,11 +1092,11 @@
         <v>80.67</v>
       </c>
       <c r="T8">
-        <f t="shared" si="0"/>
+        <f>IF(M8&lt;=$S$1,3,IF(M8&lt;=$S$2,4,IF(M8&lt;=$S$3,5,IF(M8&lt;=$S$4,6,IF(M8&lt;=$S$5,7,IF(M8&lt;=$S$6,8,IF(M8&lt;=$S$7,9,IF(M8&lt;=$S$8,10))))))))</f>
         <v>7</v>
       </c>
       <c r="U8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1138,14 +1138,14 @@
         <v>62</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>63.19</v>
       </c>
       <c r="N9" s="1">
         <v>8</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="P9" s="2">
@@ -1155,11 +1155,11 @@
         <v>80</v>
       </c>
       <c r="T9">
-        <f t="shared" si="0"/>
+        <f>IF(M9&lt;=$S$1,3,IF(M9&lt;=$S$2,4,IF(M9&lt;=$S$3,5,IF(M9&lt;=$S$4,6,IF(M9&lt;=$S$5,7,IF(M9&lt;=$S$6,8,IF(M9&lt;=$S$7,9,IF(M9&lt;=$S$8,10))))))))</f>
         <v>7</v>
       </c>
       <c r="U9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1201,14 +1201,14 @@
         <v>61</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>62.64</v>
       </c>
       <c r="N10" s="1">
         <v>9</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>71.428571428571431</v>
       </c>
       <c r="P10" s="2">
@@ -1218,11 +1218,11 @@
         <v>90</v>
       </c>
       <c r="T10">
-        <f t="shared" si="0"/>
+        <f>IF(M10&lt;=$S$1,3,IF(M10&lt;=$S$2,4,IF(M10&lt;=$S$3,5,IF(M10&lt;=$S$4,6,IF(M10&lt;=$S$5,7,IF(M10&lt;=$S$6,8,IF(M10&lt;=$S$7,9,IF(M10&lt;=$S$8,10))))))))</f>
         <v>7</v>
       </c>
       <c r="U10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1264,14 +1264,14 @@
         <v>59</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>61.85</v>
       </c>
       <c r="N11" s="1">
         <v>10</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>67.857142857142861</v>
       </c>
       <c r="P11" s="2">
@@ -1281,11 +1281,11 @@
         <v>100</v>
       </c>
       <c r="T11">
-        <f t="shared" si="0"/>
+        <f>IF(M11&lt;=$S$1,3,IF(M11&lt;=$S$2,4,IF(M11&lt;=$S$3,5,IF(M11&lt;=$S$4,6,IF(M11&lt;=$S$5,7,IF(M11&lt;=$S$6,8,IF(M11&lt;=$S$7,9,IF(M11&lt;=$S$8,10))))))))</f>
         <v>7</v>
       </c>
       <c r="U11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1327,23 +1327,23 @@
         <v>57</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58.349999999999994</v>
       </c>
       <c r="N12" s="1">
         <v>11</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>64.285714285714278</v>
       </c>
       <c r="P12" s="3"/>
       <c r="T12">
-        <f t="shared" si="0"/>
+        <f>IF(M12&lt;=$S$1,3,IF(M12&lt;=$S$2,4,IF(M12&lt;=$S$3,5,IF(M12&lt;=$S$4,6,IF(M12&lt;=$S$5,7,IF(M12&lt;=$S$6,8,IF(M12&lt;=$S$7,9,IF(M12&lt;=$S$8,10))))))))</f>
         <v>7</v>
       </c>
       <c r="U12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1385,23 +1385,23 @@
         <v>55</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56.16</v>
       </c>
       <c r="N13" s="1">
         <v>12</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60.714285714285715</v>
       </c>
       <c r="P13" s="3"/>
       <c r="T13">
-        <f t="shared" si="0"/>
+        <f>IF(M13&lt;=$S$1,3,IF(M13&lt;=$S$2,4,IF(M13&lt;=$S$3,5,IF(M13&lt;=$S$4,6,IF(M13&lt;=$S$5,7,IF(M13&lt;=$S$6,8,IF(M13&lt;=$S$7,9,IF(M13&lt;=$S$8,10))))))))</f>
         <v>7</v>
       </c>
       <c r="U13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1443,23 +1443,23 @@
         <v>52</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54.510000000000005</v>
       </c>
       <c r="N14" s="1">
         <v>13</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>57.142857142857146</v>
       </c>
       <c r="P14" s="3"/>
       <c r="T14">
-        <f t="shared" si="0"/>
+        <f>IF(M14&lt;=$S$1,3,IF(M14&lt;=$S$2,4,IF(M14&lt;=$S$3,5,IF(M14&lt;=$S$4,6,IF(M14&lt;=$S$5,7,IF(M14&lt;=$S$6,8,IF(M14&lt;=$S$7,9,IF(M14&lt;=$S$8,10))))))))</f>
         <v>7</v>
       </c>
       <c r="U14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1501,22 +1501,22 @@
         <v>51</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52.710000000000008</v>
       </c>
       <c r="N15" s="1">
         <v>14</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>53.571428571428569</v>
       </c>
       <c r="T15">
-        <f t="shared" si="0"/>
+        <f>IF(M15&lt;=$S$1,3,IF(M15&lt;=$S$2,4,IF(M15&lt;=$S$3,5,IF(M15&lt;=$S$4,6,IF(M15&lt;=$S$5,7,IF(M15&lt;=$S$6,8,IF(M15&lt;=$S$7,9,IF(M15&lt;=$S$8,10))))))))</f>
         <v>6</v>
       </c>
       <c r="U15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1558,22 +1558,22 @@
         <v>50</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52.57</v>
       </c>
       <c r="N16" s="1">
         <v>15</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="T16">
-        <f t="shared" si="0"/>
+        <f>IF(M16&lt;=$S$1,3,IF(M16&lt;=$S$2,4,IF(M16&lt;=$S$3,5,IF(M16&lt;=$S$4,6,IF(M16&lt;=$S$5,7,IF(M16&lt;=$S$6,8,IF(M16&lt;=$S$7,9,IF(M16&lt;=$S$8,10))))))))</f>
         <v>6</v>
       </c>
       <c r="U16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1615,22 +1615,22 @@
         <v>45</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49.23</v>
       </c>
       <c r="N17" s="1">
         <v>16</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="4"/>
+        <f>100-N16/$N$29*100</f>
         <v>46.428571428571431</v>
       </c>
       <c r="T17">
-        <f t="shared" si="0"/>
+        <f>IF(M17&lt;=$S$1,3,IF(M17&lt;=$S$2,4,IF(M17&lt;=$S$3,5,IF(M17&lt;=$S$4,6,IF(M17&lt;=$S$5,7,IF(M17&lt;=$S$6,8,IF(M17&lt;=$S$7,9,IF(M17&lt;=$S$8,10))))))))</f>
         <v>6</v>
       </c>
       <c r="U17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1672,22 +1672,22 @@
         <v>45</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48.61</v>
       </c>
       <c r="N18" s="1">
         <v>17</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42.857142857142861</v>
       </c>
       <c r="T18">
-        <f t="shared" si="0"/>
+        <f>IF(M18&lt;=$S$1,3,IF(M18&lt;=$S$2,4,IF(M18&lt;=$S$3,5,IF(M18&lt;=$S$4,6,IF(M18&lt;=$S$5,7,IF(M18&lt;=$S$6,8,IF(M18&lt;=$S$7,9,IF(M18&lt;=$S$8,10))))))))</f>
         <v>6</v>
       </c>
       <c r="U18">
-        <f t="shared" ref="U18:U26" si="5">IF(T18&lt;=3,2,IF(T18&lt;=5,3,IF(T18&lt;=7,4,IF(T18&lt;=10,5))))</f>
+        <f t="shared" ref="U18:U26" si="4">IF(T18&lt;=3,2,IF(T18&lt;=5,3,IF(T18&lt;=7,4,IF(T18&lt;=10,5))))</f>
         <v>4</v>
       </c>
     </row>
@@ -1729,22 +1729,22 @@
         <v>30</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41.8</v>
       </c>
       <c r="N19" s="1">
         <v>18</v>
       </c>
       <c r="O19" s="5">
+        <f t="shared" si="3"/>
+        <v>39.285714285714292</v>
+      </c>
+      <c r="T19">
+        <f>IF(M19&lt;=$S$1,3,IF(M19&lt;=$S$2,4,IF(M19&lt;=$S$3,5,IF(M19&lt;=$S$4,6,IF(M19&lt;=$S$5,7,IF(M19&lt;=$S$6,8,IF(M19&lt;=$S$7,9,IF(M19&lt;=$S$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="4"/>
-        <v>39.285714285714292</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -1786,22 +1786,22 @@
         <v>30</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41.53</v>
       </c>
       <c r="N20" s="1">
         <v>19</v>
       </c>
       <c r="O20" s="5">
+        <f t="shared" si="3"/>
+        <v>35.714285714285708</v>
+      </c>
+      <c r="T20">
+        <f>IF(M20&lt;=$S$1,3,IF(M20&lt;=$S$2,4,IF(M20&lt;=$S$3,5,IF(M20&lt;=$S$4,6,IF(M20&lt;=$S$5,7,IF(M20&lt;=$S$6,8,IF(M20&lt;=$S$7,9,IF(M20&lt;=$S$8,10))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="4"/>
-        <v>35.714285714285708</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -1843,22 +1843,22 @@
         <v>22</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40.35</v>
       </c>
       <c r="N21" s="1">
         <v>20</v>
       </c>
       <c r="O21" s="5">
+        <f t="shared" si="3"/>
+        <v>32.142857142857139</v>
+      </c>
+      <c r="T21">
+        <f>IF(M21&lt;=$S$1,3,IF(M21&lt;=$S$2,4,IF(M21&lt;=$S$3,5,IF(M21&lt;=$S$4,6,IF(M21&lt;=$S$5,7,IF(M21&lt;=$S$6,8,IF(M21&lt;=$S$7,9,IF(M21&lt;=$S$8,10))))))))</f>
+        <v>5</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="4"/>
-        <v>32.142857142857139</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -1900,22 +1900,22 @@
         <v>21</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
       <c r="N22" s="1">
         <v>21</v>
       </c>
       <c r="O22" s="5">
+        <f t="shared" si="3"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="T22">
+        <f>IF(M22&lt;=$S$1,3,IF(M22&lt;=$S$2,4,IF(M22&lt;=$S$3,5,IF(M22&lt;=$S$4,6,IF(M22&lt;=$S$5,7,IF(M22&lt;=$S$6,8,IF(M22&lt;=$S$7,9,IF(M22&lt;=$S$8,10))))))))</f>
+        <v>5</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="4"/>
-        <v>28.571428571428569</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -1957,22 +1957,22 @@
         <v>21</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39.67</v>
       </c>
       <c r="N23" s="1">
         <v>22</v>
       </c>
       <c r="O23" s="5">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="T23">
+        <f>IF(M23&lt;=$S$1,3,IF(M23&lt;=$S$2,4,IF(M23&lt;=$S$3,5,IF(M23&lt;=$S$4,6,IF(M23&lt;=$S$5,7,IF(M23&lt;=$S$6,8,IF(M23&lt;=$S$7,9,IF(M23&lt;=$S$8,10))))))))</f>
+        <v>5</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -2014,22 +2014,22 @@
         <v>21</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39.049999999999997</v>
       </c>
       <c r="N24" s="1">
         <v>23</v>
       </c>
       <c r="O24" s="5">
+        <f t="shared" si="3"/>
+        <v>21.428571428571431</v>
+      </c>
+      <c r="T24">
+        <f>IF(M24&lt;=$S$1,3,IF(M24&lt;=$S$2,4,IF(M24&lt;=$S$3,5,IF(M24&lt;=$S$4,6,IF(M24&lt;=$S$5,7,IF(M24&lt;=$S$6,8,IF(M24&lt;=$S$7,9,IF(M24&lt;=$S$8,10))))))))</f>
+        <v>5</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="4"/>
-        <v>21.428571428571431</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -2071,22 +2071,22 @@
         <v>20</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38.590000000000003</v>
       </c>
       <c r="N25" s="1">
         <v>24</v>
       </c>
       <c r="O25" s="5">
+        <f t="shared" si="3"/>
+        <v>17.857142857142861</v>
+      </c>
+      <c r="T25">
+        <f>IF(M25&lt;=$S$1,3,IF(M25&lt;=$S$2,4,IF(M25&lt;=$S$3,5,IF(M25&lt;=$S$4,6,IF(M25&lt;=$S$5,7,IF(M25&lt;=$S$6,8,IF(M25&lt;=$S$7,9,IF(M25&lt;=$S$8,10))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="4"/>
-        <v>17.857142857142861</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -2128,22 +2128,22 @@
         <v>20</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36.67</v>
       </c>
       <c r="N26" s="1">
         <v>25</v>
       </c>
       <c r="O26" s="5">
+        <f t="shared" si="3"/>
+        <v>14.285714285714292</v>
+      </c>
+      <c r="T26">
+        <f>IF(M26&lt;=$S$1,3,IF(M26&lt;=$S$2,4,IF(M26&lt;=$S$3,5,IF(M26&lt;=$S$4,6,IF(M26&lt;=$S$5,7,IF(M26&lt;=$S$6,8,IF(M26&lt;=$S$7,9,IF(M26&lt;=$S$8,10))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="4"/>
-        <v>14.285714285714292</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -2185,22 +2185,22 @@
         <v>23</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35.61</v>
       </c>
       <c r="N27" s="1">
         <v>26</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10.714285714285708</v>
       </c>
       <c r="T27">
-        <f t="shared" si="0"/>
+        <f>IF(M27&lt;=$S$1,3,IF(M27&lt;=$S$2,4,IF(M27&lt;=$S$3,5,IF(M27&lt;=$S$4,6,IF(M27&lt;=$S$5,7,IF(M27&lt;=$S$6,8,IF(M27&lt;=$S$7,9,IF(M27&lt;=$S$8,10))))))))</f>
         <v>4</v>
       </c>
       <c r="U27">
-        <f t="shared" ref="U27:U32" si="6">IF(T27&lt;=3,2,IF(T27&lt;=5,3,IF(T27&lt;=7,4,IF(T27&lt;=10,5))))</f>
+        <f t="shared" ref="U27:U32" si="5">IF(T27&lt;=3,2,IF(T27&lt;=5,3,IF(T27&lt;=7,4,IF(T27&lt;=10,5))))</f>
         <v>3</v>
       </c>
     </row>
@@ -2242,22 +2242,22 @@
         <v>20</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32.46</v>
       </c>
       <c r="N28" s="1">
         <v>27</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.1428571428571388</v>
       </c>
       <c r="T28">
-        <f t="shared" si="0"/>
+        <f>IF(M28&lt;=$S$1,3,IF(M28&lt;=$S$2,4,IF(M28&lt;=$S$3,5,IF(M28&lt;=$S$4,6,IF(M28&lt;=$S$5,7,IF(M28&lt;=$S$6,8,IF(M28&lt;=$S$7,9,IF(M28&lt;=$S$8,10))))))))</f>
         <v>4</v>
       </c>
       <c r="U28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -2299,22 +2299,22 @@
         <v>20</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31.38</v>
       </c>
       <c r="N29" s="1">
         <v>28</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.5714285714285694</v>
       </c>
       <c r="T29">
-        <f t="shared" si="0"/>
+        <f>IF(M29&lt;=$S$1,3,IF(M29&lt;=$S$2,4,IF(M29&lt;=$S$3,5,IF(M29&lt;=$S$4,6,IF(M29&lt;=$S$5,7,IF(M29&lt;=$S$6,8,IF(M29&lt;=$S$7,9,IF(M29&lt;=$S$8,10))))))))</f>
         <v>4</v>
       </c>
       <c r="U29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -2356,22 +2356,22 @@
         <v>17</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
       <c r="N30" s="1">
         <v>29</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" ref="O4:O32" si="7">100-N29/$N$29*100</f>
+        <f t="shared" ref="O30" si="6">100-N29/$N$29*100</f>
         <v>0</v>
       </c>
       <c r="T30">
-        <f t="shared" si="0"/>
+        <f>IF(M30&lt;=$S$1,3,IF(M30&lt;=$S$2,4,IF(M30&lt;=$S$3,5,IF(M30&lt;=$S$4,6,IF(M30&lt;=$S$5,7,IF(M30&lt;=$S$6,8,IF(M30&lt;=$S$7,9,IF(M30&lt;=$S$8,10))))))))</f>
         <v>3</v>
       </c>
       <c r="U30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
         <v>19</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22.490000000000002</v>
       </c>
       <c r="N31" s="1">
@@ -2423,11 +2423,11 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <f t="shared" si="0"/>
+        <f>IF(M31&lt;=$S$1,3,IF(M31&lt;=$S$2,4,IF(M31&lt;=$S$3,5,IF(M31&lt;=$S$4,6,IF(M31&lt;=$S$5,7,IF(M31&lt;=$S$6,8,IF(M31&lt;=$S$7,9,IF(M31&lt;=$S$8,10))))))))</f>
         <v>3</v>
       </c>
       <c r="U31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
         <v>20</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19.59</v>
       </c>
       <c r="N32" s="1">
@@ -2479,11 +2479,11 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <f t="shared" si="0"/>
+        <f>IF(M32&lt;=$S$1,3,IF(M32&lt;=$S$2,4,IF(M32&lt;=$S$3,5,IF(M32&lt;=$S$4,6,IF(M32&lt;=$S$5,7,IF(M32&lt;=$S$6,8,IF(M32&lt;=$S$7,9,IF(M32&lt;=$S$8,10))))))))</f>
         <v>3</v>
       </c>
       <c r="U32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
